--- a/Fall-Semester/ANLT600/Seasonal Indices template.xlsx
+++ b/Fall-Semester/ANLT600/Seasonal Indices template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BE5E36-C8BE-CC43-9C0D-F03B8A5792E9}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A94A71D-189B-804F-B4E3-9E1CFB468CE9}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Predicted Sales(1000)</t>
+  </si>
+  <si>
+    <t>Predicted sale</t>
   </si>
 </sst>
 </file>
@@ -169,6 +172,595 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SI!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted sale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SI!$A$28:$B$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> Year 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Year 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Year 3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Year 4</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SI!$C$28:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144.53234674683966</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189.24282526899142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133.4484781834515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.776349800717384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD4B-364C-B9A1-2EAFA2524C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SI!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales(1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SI!$A$28:$B$43</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> Year 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Year 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Year 3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Year 4</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SI!$D$28:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD4B-364C-B9A1-2EAFA2524C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1338340319"/>
+        <c:axId val="1340425199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1338340319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340425199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340425199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338340319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -537,7 +1129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1244,6 +1836,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2250,7 +2882,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8464F081-8180-4463-38B2-68D914F32E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2325,6 +3501,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2590,11 +3770,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293C91B-E19A-4D50-AD6A-3193F0D730B8}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2735,9 +3913,18 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3">
+        <f>SUM(G5:G8)</f>
+        <v>556</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:I9" si="0">SUM(H5:H8)</f>
+        <v>555</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -2754,11 +3941,11 @@
         <v>139</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:I10" si="0">AVERAGE(H5:H8)</f>
+        <f t="shared" ref="H10:I10" si="1">AVERAGE(H5:H8)</f>
         <v>138.75</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139.5</v>
       </c>
     </row>
@@ -2827,7 +4014,10 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f>$G$24*J16</f>
+        <v>144.53234674683966</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2853,24 +4043,27 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C19" si="2">$G$24*J17</f>
+        <v>189.24282526899142</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:I19" si="1">G6/G$10</f>
+        <f t="shared" ref="G17:I19" si="3">G6/G$10</f>
         <v>1.3309352517985611</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3693693693693694</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3476702508960574</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:J19" si="2">AVERAGE(G17:I17)</f>
+        <f t="shared" ref="J17:J19" si="4">AVERAGE(G17:I17)</f>
         <v>1.3493249573546626</v>
       </c>
     </row>
@@ -2879,24 +4072,27 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>133.4484781834515</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94964028776978415</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97297297297297303</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93189964157706096</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.95150430077327275</v>
       </c>
     </row>
@@ -2905,24 +4101,27 @@
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>93.776349800717384</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67625899280575541</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64864864864864868</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68100358422939067</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66863707522793148</v>
       </c>
     </row>
@@ -2952,10 +4151,211 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <f>G23/4</f>
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>145</v>
+      </c>
+      <c r="D28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>185</v>
+      </c>
+      <c r="D29">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>140</v>
+      </c>
+      <c r="D32">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>190</v>
+      </c>
+      <c r="D33">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>145</v>
+      </c>
+      <c r="D36">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>188</v>
+      </c>
+      <c r="D37">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>130</v>
+      </c>
+      <c r="D38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>144.53234674683966</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>189.24282526899142</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>133.4484781834515</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>93.776349800717384</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2963,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3551,7 +4951,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
